--- a/Documents/Database_Schema/Databasetable.xlsx
+++ b/Documents/Database_Schema/Databasetable.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanket_borate\CDAC_22\IET\project data\25-07-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vozon\Desktop\GitProjectClone\Ecommerce-for-Mango-Fruit\Documents\Database_Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="FinalSheet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="237">
   <si>
     <t>Price</t>
   </si>
@@ -587,6 +588,156 @@
   </si>
   <si>
     <t>mango_id(fk)</t>
+  </si>
+  <si>
+    <t>E-Commerce System of Mango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          email_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          password</t>
+  </si>
+  <si>
+    <t>mango_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mango_id        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    price_per_dozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           variety  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     farmer_id (fk)</t>
+  </si>
+  <si>
+    <t>customer_info</t>
+  </si>
+  <si>
+    <t>customer_id(pk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    first_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          contact_no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       email_id</t>
+  </si>
+  <si>
+    <t>farmer_info</t>
+  </si>
+  <si>
+    <t>farmer_id (pk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       contact_no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      last_name  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    email_Id</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        id  (pk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     customerid    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        date          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       description   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">              farmerid      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          mangoname     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       priceperdozen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           quantity      </t>
+  </si>
+  <si>
+    <t>customer_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       id (fk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      customerid  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         date          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     description   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        farmerid      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       mangoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   priceperdozen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       quantity </t>
+  </si>
+  <si>
+    <t>mangoname</t>
+  </si>
+  <si>
+    <t>address_Info</t>
+  </si>
+  <si>
+    <t>address_id(pk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     flat_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> state</t>
+  </si>
+  <si>
+    <t>street_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     customer_id(fk)</t>
   </si>
 </sst>
 </file>
@@ -631,7 +782,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +828,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -942,6 +1099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,7 +1121,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1266,17 +1448,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -1434,16 +1616,16 @@
       <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1712,8 +1894,8 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="J32" s="9"/>
@@ -2108,10 +2290,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="69"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -2126,8 +2308,8 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -2262,8 +2444,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="17"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -2271,10 +2453,10 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -2406,8 +2588,8 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="17"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -2466,8 +2648,8 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="19"/>
@@ -2641,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
@@ -2664,7 +2846,7 @@
       <c r="D2"/>
     </row>
     <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="64" t="s">
         <v>126</v>
       </c>
       <c r="B3" t="s">
@@ -2693,10 +2875,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="67"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -2721,8 +2903,8 @@
     <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -3851,4 +4033,511 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="19" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" style="19" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="73"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="70"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="51"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="51"/>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="76"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="76"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="76"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="51"/>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="49"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="47"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="75"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="76"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="76"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="48"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="76"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="49"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="47"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="48"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="48"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="48"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="48"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="49"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J58" s="77"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J59" s="79" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="80"/>
+      <c r="J60" s="45"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="48"/>
+      <c r="B61" s="51"/>
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="48"/>
+      <c r="B62" s="51"/>
+      <c r="J62" s="46"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="48"/>
+      <c r="B63" s="51"/>
+      <c r="J63" s="46"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="48"/>
+      <c r="B64" s="51"/>
+      <c r="J64" s="46"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="49"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="13"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="F74" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="G74" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="H74" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="I74" s="82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="47"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="45"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="48"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="I76" s="46"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="48"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
+      <c r="I77" s="46"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="48"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="51"/>
+      <c r="I78" s="46"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="48"/>
+      <c r="I79" s="46"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="49"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>